--- a/ADAPT Tracksheet.xlsx
+++ b/ADAPT Tracksheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\my pdf's\ADAPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HARSHA\ADAPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>In Exception Handling</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT</t>
   </si>
 </sst>
 </file>
@@ -142,9 +145,16 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h\.mm\.ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -171,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,6 +200,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,7 +561,7 @@
   <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +623,7 @@
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -626,7 +639,7 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -642,7 +655,9 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -754,7 +769,9 @@
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -818,7 +835,9 @@
       <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -943,8 +962,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ADAPT Tracksheet.xlsx
+++ b/ADAPT Tracksheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\my pdf's\ADAPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HARSHA\ADAPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>In Exception Handling</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT</t>
   </si>
 </sst>
 </file>
@@ -142,9 +145,16 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h\.mm\.ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -171,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,6 +200,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,7 +561,7 @@
   <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +623,7 @@
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -626,7 +639,7 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -642,7 +655,9 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -754,7 +769,9 @@
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -818,7 +835,9 @@
       <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -834,7 +853,7 @@
       <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -943,8 +962,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>